--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="23385" windowHeight="10410" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -516,6 +516,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -524,13 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -539,6 +546,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -547,22 +592,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,92 +622,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,175 +699,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -915,21 +930,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -940,21 +940,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,151 +963,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23385" windowHeight="10410" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -474,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -516,6 +516,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -524,7 +540,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,92 +644,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,36 +662,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +687,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +765,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,91 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,55 +861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,21 +892,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,22 +929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,151 +958,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowWidth="28650" windowHeight="7350" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -511,6 +511,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -524,6 +539,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -533,45 +616,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,72 +638,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,9 +646,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +693,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -705,7 +717,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,31 +759,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,25 +831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,61 +849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,24 +868,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,15 +905,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -929,17 +920,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,8 +947,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,151 +963,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1622,6 +1622,9 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28650" windowHeight="7350" tabRatio="500"/>
+    <workbookView windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -106,30 +109,42 @@
     <t>string</t>
   </si>
   <si>
-    <t>1.0. Visit Code</t>
+    <t>1.0. Visit code</t>
   </si>
   <si>
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de Visite</t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
-    <t>1.1. Member Code</t>
+    <t>1.1. Member's code</t>
   </si>
   <si>
     <t>1.1. Código do Membro</t>
   </si>
   <si>
+    <t>1.1. Code de Membre</t>
+  </si>
+  <si>
+    <t>header2</t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
-    <t>1.2. Member Name</t>
+    <t>1.2. Member's name</t>
   </si>
   <si>
     <t>3.1. Nome completo</t>
   </si>
   <si>
+    <t>1.2. Nom et prénom du Membre</t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -139,12 +154,15 @@
     <t>relationships</t>
   </si>
   <si>
-    <t>2.1. Relation with the Head of Household</t>
+    <t>2.1. Relation with the head of household</t>
   </si>
   <si>
     <t>4.1. Relação com o chefe do agregado</t>
   </si>
   <si>
+    <t>2.1. Relation avec le chef de ménage</t>
+  </si>
+  <si>
     <t>migration</t>
   </si>
   <si>
@@ -154,55 +172,70 @@
     <t>migtypes</t>
   </si>
   <si>
-    <t>3.1. Migration Type</t>
+    <t>3.1. Migration type</t>
   </si>
   <si>
     <t>5.1. Tipo de Imigração</t>
   </si>
   <si>
+    <t>3.1. Type d'Immigration</t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
     <t>originCode</t>
   </si>
   <si>
-    <t>5.1. Origin Household Code</t>
+    <t>5.1. Origin household code</t>
   </si>
   <si>
     <t>6.1. Código do Agregado de Origem</t>
   </si>
   <si>
+    <t>5.1. Code du Ménage d'Origine</t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
-    <t>5.3. Destination Household Code</t>
+    <t>5.3. Destination household code</t>
   </si>
   <si>
     <t>5.3. Código Agregado de Destino</t>
   </si>
   <si>
+    <t>5.3. Code du Ménage de Destination</t>
+  </si>
+  <si>
     <t>migrationDate</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>5.4. Migration Date</t>
+    <t>5.4. Migration date</t>
   </si>
   <si>
     <t>5.4. Data da Migração?</t>
   </si>
   <si>
+    <t>5.4. Date de la Migration?</t>
+  </si>
+  <si>
     <t>migrationReason</t>
   </si>
   <si>
     <t>reasons</t>
   </si>
   <si>
-    <t>5.5. Reason for In Migration</t>
-  </si>
-  <si>
-    <t>5.5. Causas da migração</t>
+    <t>5.5. Reason for Migration</t>
+  </si>
+  <si>
+    <t>5.5. Causas da imigração</t>
+  </si>
+  <si>
+    <t>5.5. Les causes de l'immigration</t>
   </si>
   <si>
     <t>migrationReasonOther</t>
@@ -211,7 +244,10 @@
     <t>5.5.1. Specify other reason for migration</t>
   </si>
   <si>
-    <t>5.5.1. Especifique outras causas da migração</t>
+    <t>5.5.1. Especifique outras causas da imigração</t>
+  </si>
+  <si>
+    <t>5.5.1. Précisez l'autre raison de l'immigration</t>
   </si>
   <si>
     <t>${migrationReason} = 'OTHER'</t>
@@ -226,10 +262,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>4.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Códido do Inquiridor</t>
+    <t>4.1. Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>4.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>4.1. Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -238,19 +277,25 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>4.2. Collected Date</t>
+    <t>4.2. Collected date</t>
   </si>
   <si>
     <t>4.2. Data da Visita</t>
   </si>
   <si>
+    <t>4.2. Date de Collecte</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
-    <t>Access Granted to Modules</t>
-  </si>
-  <si>
-    <t>Acesso permitido ao Módulos</t>
+    <t>Access granted to modules</t>
+  </si>
+  <si>
+    <t>Acesso permitido aos Módulos</t>
+  </si>
+  <si>
+    <t>Accès aux Modules autorisé</t>
   </si>
   <si>
     <t>value</t>
@@ -268,6 +313,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -277,15 +325,21 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
-    <t>Head of Household</t>
+    <t>Head of household</t>
   </si>
   <si>
     <t>Chefe do Agregado</t>
   </si>
   <si>
+    <t>Chef de ménage</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -295,7 +349,10 @@
     <t>Spouse</t>
   </si>
   <si>
-    <t>Esposo/a</t>
+    <t>Cônjuge</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
   </si>
   <si>
     <t>SON</t>
@@ -307,6 +364,9 @@
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>Fils/fille</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -316,6 +376,9 @@
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>Frère/Sœur</t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -325,6 +388,9 @@
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>Père/Mère</t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -334,15 +400,21 @@
     <t>Neto/a</t>
   </si>
   <si>
+    <t>Petits-enfants</t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Not Related</t>
+    <t>Not related</t>
   </si>
   <si>
     <t>Sem relação</t>
   </si>
   <si>
+    <t>Aucune relation</t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -352,24 +424,33 @@
     <t>Outro parente</t>
   </si>
   <si>
+    <t>Autre parent</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
-    <t>Don't Know</t>
+    <t>Don't know</t>
   </si>
   <si>
     <t>Não sabe</t>
   </si>
   <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
     <t>ENT</t>
   </si>
   <si>
-    <t>Internal InMigration</t>
+    <t>Internal inmigration</t>
   </si>
   <si>
     <t>Imigração Interna</t>
   </si>
   <si>
+    <t>Immigration interne</t>
+  </si>
+  <si>
     <t>CAME_WITH_RELATIVES</t>
   </si>
   <si>
@@ -379,6 +460,9 @@
     <t>Veio com os parentes</t>
   </si>
   <si>
+    <t>Il est venu avec sa famille</t>
+  </si>
+  <si>
     <t>FARMING</t>
   </si>
   <si>
@@ -388,15 +472,21 @@
     <t>Agricultura</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
-    <t>Change in Marital Status</t>
+    <t>Change in marital status</t>
   </si>
   <si>
     <t>Mudança de estado civil</t>
   </si>
   <si>
+    <t>Changement d'état civil</t>
+  </si>
+  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -406,24 +496,33 @@
     <t>Pesca</t>
   </si>
   <si>
+    <t>Pêche</t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
-    <t>Education/Scholl</t>
+    <t>Education/School</t>
   </si>
   <si>
     <t>Educação</t>
   </si>
   <si>
+    <t>Éducation</t>
+  </si>
+  <si>
     <t>HEALTH_REASON</t>
   </si>
   <si>
-    <t>Health Reasons</t>
+    <t>Health reasons</t>
   </si>
   <si>
     <t>Saúde</t>
   </si>
   <si>
+    <t>Santé</t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -433,6 +532,9 @@
     <t>Trabalho</t>
   </si>
   <si>
+    <t>Travail</t>
+  </si>
+  <si>
     <t>NEW_HOUSE</t>
   </si>
   <si>
@@ -442,6 +544,9 @@
     <t>Mudança para nova casa</t>
   </si>
   <si>
+    <t>Déménagement dans une nouvelle maison</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -451,6 +556,9 @@
     <t>Outra</t>
   </si>
   <si>
+    <t>Autre</t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
@@ -461,6 +569,9 @@
   </si>
   <si>
     <t>form_name::pt</t>
+  </si>
+  <si>
+    <t>form_name::fr</t>
   </si>
   <si>
     <t>rawInMigration</t>
@@ -474,12 +585,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -489,16 +600,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -524,16 +630,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,8 +653,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -562,16 +691,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,30 +714,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,6 +730,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +758,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -639,46 +766,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,109 +793,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,13 +967,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,67 +983,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,6 +1032,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -916,6 +1052,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,222 +1105,195 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1478,30 +1613,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="39.0190476190476" customWidth="1"/>
-    <col min="10" max="10" width="16.352380952381" customWidth="1"/>
-    <col min="11" max="11" width="12.8095238095238" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="40.6285714285714" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
+    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.8190476190476" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1665,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1541,355 +1677,397 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12" t="s">
-        <v>18</v>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" t="b">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" t="b">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" t="b">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" t="b">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>
@@ -1934,26 +2112,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
-    <col min="3" max="4" width="22.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
+    <col min="3" max="5" width="22.8190476190476" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1961,435 +2139,516 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="E5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>113</v>
+        <v>139</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>119</v>
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>122</v>
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>125</v>
+        <v>155</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="E23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2401,39 +2660,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView xWindow="19590" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="184">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -284,6 +287,27 @@
   </si>
   <si>
     <t>4.2. Date de Collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -585,10 +609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -622,30 +646,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -654,7 +654,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -668,15 +683,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -691,17 +699,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,8 +730,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +754,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,27 +775,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,43 +823,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,25 +943,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,109 +997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,21 +1028,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,26 +1080,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1105,155 +1094,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,12 +1316,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1613,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1637,7 +1669,7 @@
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1697,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1680,35 +1712,38 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1718,29 +1753,29 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1750,25 +1785,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1779,53 +1814,53 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1833,28 +1868,28 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1865,22 +1900,22 @@
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1891,22 +1926,22 @@
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1914,25 +1949,25 @@
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1940,52 +1975,52 @@
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -1995,25 +2030,25 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2021,62 +2056,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I14" t="s">
+      <c r="E14" s="17" t="s">
         <v>80</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" t="b">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N14" t="b">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+    <row r="15" spans="1:17">
+      <c r="A15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
@@ -2101,6 +2232,15 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2131,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2148,382 +2288,382 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -2676,30 +2816,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="5850" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="194">
   <si>
     <t>group</t>
   </si>
@@ -142,7 +142,7 @@
     <t>1.2. Member's name</t>
   </si>
   <si>
-    <t>3.1. Nome completo</t>
+    <t>1.2. Nome completo</t>
   </si>
   <si>
     <t>1.2. Nom et prénom du Membre</t>
@@ -160,7 +160,7 @@
     <t>2.1. Relation with the head of household</t>
   </si>
   <si>
-    <t>4.1. Relação com o chefe do agregado</t>
+    <t>2.1. Relação com o chefe do agregado</t>
   </si>
   <si>
     <t>2.1. Relation avec le chef de ménage</t>
@@ -175,13 +175,13 @@
     <t>migtypes</t>
   </si>
   <si>
-    <t>3.1. Migration type</t>
-  </si>
-  <si>
-    <t>5.1. Tipo de Imigração</t>
-  </si>
-  <si>
-    <t>3.1. Type d'Immigration</t>
+    <t>2.2. Migration type</t>
+  </si>
+  <si>
+    <t>2.2. Tipo de Imigração</t>
+  </si>
+  <si>
+    <t>2.2. Type d'Immigration</t>
   </si>
   <si>
     <t>selected_only</t>
@@ -190,25 +190,25 @@
     <t>originCode</t>
   </si>
   <si>
-    <t>5.1. Origin household code</t>
-  </si>
-  <si>
-    <t>6.1. Código do Agregado de Origem</t>
-  </si>
-  <si>
-    <t>5.1. Code du Ménage d'Origine</t>
+    <t>2.3. Origin household code</t>
+  </si>
+  <si>
+    <t>2.3. Código do Agregado de Origem</t>
+  </si>
+  <si>
+    <t>2.3. Code du Ménage d'Origine</t>
   </si>
   <si>
     <t>destinationCode</t>
   </si>
   <si>
-    <t>5.3. Destination household code</t>
-  </si>
-  <si>
-    <t>5.3. Código Agregado de Destino</t>
-  </si>
-  <si>
-    <t>5.3. Code du Ménage de Destination</t>
+    <t>2.4. Destination household code</t>
+  </si>
+  <si>
+    <t>2.4. Código Agregado de Destino</t>
+  </si>
+  <si>
+    <t>2.4. Code du Ménage de Destination</t>
   </si>
   <si>
     <t>migrationDate</t>
@@ -217,13 +217,13 @@
     <t>date</t>
   </si>
   <si>
-    <t>5.4. Migration date</t>
-  </si>
-  <si>
-    <t>5.4. Data da Migração?</t>
-  </si>
-  <si>
-    <t>5.4. Date de la Migration?</t>
+    <t>2.5. Migration date</t>
+  </si>
+  <si>
+    <t>2.5. Data da Migração?</t>
+  </si>
+  <si>
+    <t>2.5. Date de la Migration?</t>
   </si>
   <si>
     <t>migrationReason</t>
@@ -232,30 +232,60 @@
     <t>reasons</t>
   </si>
   <si>
-    <t>5.5. Reason for Migration</t>
-  </si>
-  <si>
-    <t>5.5. Causas da imigração</t>
-  </si>
-  <si>
-    <t>5.5. Les causes de l'immigration</t>
+    <t>2.6. Reason for Migration</t>
+  </si>
+  <si>
+    <t>2.6. Causas da imigração</t>
+  </si>
+  <si>
+    <t>2.6. Les causes de l'immigration</t>
   </si>
   <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
-    <t>5.5.1. Specify other reason for migration</t>
-  </si>
-  <si>
-    <t>5.5.1. Especifique outras causas da imigração</t>
-  </si>
-  <si>
-    <t>5.5.1. Précisez l'autre raison de l'immigration</t>
+    <t>2.6.1. Specify other reason for migration</t>
+  </si>
+  <si>
+    <t>2.6.1. Especifique outras causas da imigração</t>
+  </si>
+  <si>
+    <t>2.6.1. Précisez l'autre raison de l'immigration</t>
   </si>
   <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>educations</t>
+  </si>
+  <si>
+    <t>2.7. Education Level</t>
+  </si>
+  <si>
+    <t>2.7. Nivel de Educação</t>
+  </si>
+  <si>
+    <t>2.7. Niveau d'éducation</t>
+  </si>
+  <si>
+    <t>call:getMemberAge() &gt; 5</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>religions</t>
+  </si>
+  <si>
+    <t>2.8. Religion</t>
+  </si>
+  <si>
+    <t>2.8. Religião</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -265,13 +295,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>4.1. Collected by fieldworker</t>
-  </si>
-  <si>
-    <t>4.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>4.1. Code de l'Enquêteur</t>
+    <t>Collected by fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'Enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -280,13 +310,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>4.2. Collected date</t>
-  </si>
-  <si>
-    <t>4.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>4.2. Date de Collecte</t>
+    <t>Collected date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de Collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -609,8 +639,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -646,15 +676,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,6 +691,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -675,19 +713,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,6 +743,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -716,15 +791,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,60 +820,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,13 +853,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,19 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,7 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,128 +1037,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1034,9 +1064,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,7 +1137,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,21 +1172,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1102,6 +1179,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,163 +1207,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1313,6 +1405,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1320,16 +1415,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1645,10 +1753,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1697,7 +1805,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1712,13 +1820,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1728,15 +1836,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1753,7 +1861,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1774,8 +1882,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1802,8 +1910,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1831,8 +1939,8 @@
       <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1859,8 +1967,8 @@
       <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1888,8 +1996,8 @@
       <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1914,8 +2022,8 @@
       <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1940,8 +2048,8 @@
       <c r="J9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1966,8 +2074,8 @@
       <c r="J10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1989,8 +2097,8 @@
       <c r="J11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -1998,222 +2106,261 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" t="s">
+      <c r="I12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" t="b">
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="b">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" s="15" customFormat="1" spans="1:14">
+      <c r="A14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="N14" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="16" customFormat="1" spans="1:14">
+      <c r="A15" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" t="b">
+      <c r="D15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="b">
+      <c r="N15" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17" t="b">
+    <row r="16" s="16" customFormat="1" spans="1:17">
+      <c r="A16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="N16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17" t="b">
+      <c r="Q16" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="17" t="s">
+    <row r="17" s="16" customFormat="1" spans="1:17">
+      <c r="A17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17" t="b">
+      <c r="H17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="N17" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17" t="b">
+      <c r="Q17" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="17" t="s">
+    <row r="18" s="16" customFormat="1" spans="1:17">
+      <c r="A18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17" t="b">
+      <c r="H18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="N18" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17" t="b">
+      <c r="Q18" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="19" s="17" customFormat="1" spans="1:14">
+      <c r="A19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" t="b">
+      <c r="H19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N17" t="b">
+      <c r="N19" s="17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1"/>
@@ -2241,6 +2388,12 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2271,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2288,37 +2441,37 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -2327,19 +2480,19 @@
         <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2347,16 +2500,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2364,16 +2517,16 @@
         <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2381,16 +2534,16 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2398,16 +2551,16 @@
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2415,16 +2568,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2432,16 +2585,16 @@
         <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2449,16 +2602,16 @@
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2466,16 +2619,16 @@
         <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2483,16 +2636,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2500,16 +2653,16 @@
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2517,16 +2670,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2534,16 +2687,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2551,16 +2704,16 @@
         <v>59</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2568,16 +2721,16 @@
         <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2585,16 +2738,16 @@
         <v>59</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2602,16 +2755,16 @@
         <v>59</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2619,16 +2772,16 @@
         <v>59</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2636,16 +2789,16 @@
         <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -2654,16 +2807,16 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -2816,30 +2969,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="19050" windowHeight="9600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -639,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -692,43 +692,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -736,7 +699,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -752,14 +730,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,26 +760,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,7 +776,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,10 +804,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,187 +853,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,11 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,22 +1143,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,22 +1178,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,142 +1224,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1755,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="9600" tabRatio="500"/>
+    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -639,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -676,9 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,6 +687,52 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,7 +752,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,17 +804,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,79 +820,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,67 +853,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,115 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,26 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,44 +1156,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,151 +1177,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,8 +1755,8 @@
   <sheetPr/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2955,8 +2955,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500"/>
+    <workbookView windowWidth="25830" windowHeight="9885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -640,9 +640,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -676,6 +676,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -683,8 +698,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,29 +752,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -731,28 +761,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,18 +781,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -796,32 +812,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,181 +853,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,17 +1124,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,15 +1162,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,6 +1192,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,169 +1221,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B14" sqref="B14:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25830" windowHeight="9885" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="216">
   <si>
     <t>group</t>
   </si>
@@ -286,6 +286,51 @@
     <t>2.8. Religião</t>
   </si>
   <si>
+    <t>hasPhoneNumbers</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>2.9.  Does the member have a phone number?</t>
+  </si>
+  <si>
+    <t>2.9. O membro tem um número de telefone?</t>
+  </si>
+  <si>
+    <t>2.9. Le membre a-t-il un numéro de téléphone?</t>
+  </si>
+  <si>
+    <t>phonePrimary</t>
+  </si>
+  <si>
+    <t>2.9.1. What is the member's primary phone number?</t>
+  </si>
+  <si>
+    <t>2.9.1. Qual é o número de telefone principal do membro?</t>
+  </si>
+  <si>
+    <t>2.9.1. Quel est le numéro de téléphone principal du membre?</t>
+  </si>
+  <si>
+    <t>${hasPhoneNumbers} = 'true'</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>phoneAlternative</t>
+  </si>
+  <si>
+    <t>2.9.2. What is the member's alternative phone number?  (If available)</t>
+  </si>
+  <si>
+    <t>2.9.2. Qual é o número de telefone alternativo do membro? (Se disponível)</t>
+  </si>
+  <si>
+    <t>2.9.2. Quel est le numéro de téléphone alternatif du membre ? (Si disponible)</t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -355,6 +400,30 @@
     <t>value</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
     <t>genders</t>
   </si>
   <si>
@@ -392,9 +461,6 @@
   </si>
   <si>
     <t>Chef de ménage</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>SPO</t>
@@ -639,10 +705,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -676,43 +742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -721,54 +750,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,7 +764,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,14 +803,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -814,6 +819,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +937,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,156 +1100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,41 +1193,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,17 +1240,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,160 +1263,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1398,6 +1467,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1475,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1415,6 +1486,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1433,6 +1508,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1753,10 +1830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1805,7 +1882,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1820,7 +1897,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1836,15 +1913,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1861,7 +1938,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="32"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1882,8 +1959,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1910,8 +1987,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1939,8 +2016,8 @@
       <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1967,8 +2044,8 @@
       <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1996,8 +2073,8 @@
       <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -2022,8 +2099,8 @@
       <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2048,8 +2125,8 @@
       <c r="J9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2074,8 +2151,8 @@
       <c r="J10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2097,8 +2174,8 @@
       <c r="J11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2107,269 +2184,358 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="23" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="20" t="b">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20" t="s">
+      <c r="N12" s="23"/>
+      <c r="O12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="20"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="20" t="b">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" s="15" customFormat="1" spans="1:14">
-      <c r="A14" s="21" t="s">
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" s="17" customFormat="1" spans="1:16">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" s="17" customFormat="1" spans="1:16">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="15" t="b">
+      <c r="E15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="15" t="b">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" spans="1:16">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" s="18" customFormat="1" spans="1:14">
+      <c r="A17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" s="16" customFormat="1" spans="1:14">
-      <c r="A15" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="16" t="b">
+      <c r="N17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="16" t="b">
+    </row>
+    <row r="18" s="19" customFormat="1" spans="1:14">
+      <c r="A18" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" s="16" customFormat="1" spans="1:17">
-      <c r="A16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="N16" s="16" t="b">
+      <c r="N18" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="16" t="b">
+    </row>
+    <row r="19" s="19" customFormat="1" spans="1:17">
+      <c r="A19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="N19" s="19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" s="16" customFormat="1" spans="1:17">
-      <c r="A17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="Q19" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="1" spans="1:17">
+      <c r="A20" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="N20" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="19" customFormat="1" spans="1:17">
+      <c r="A21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="D21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="N21" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="20" customFormat="1" spans="1:14">
+      <c r="A22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="N17" s="16" t="b">
+      <c r="D22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" s="16" t="b">
+      <c r="N22" s="20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" s="16" customFormat="1" spans="1:17">
-      <c r="A18" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="N18" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="1:14">
-      <c r="A19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2394,6 +2560,15 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2405,10 +2580,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2424,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2440,508 +2615,544 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="B8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="B11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="B13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="B16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="B17" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="B19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="D25" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="10"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="9"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="10"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="10"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="10"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="10"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2969,30 +3180,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="263">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de Visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code de Membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የአባል ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>1.2. Nom et prénom du Membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የአባል ስም  </t>
+  </si>
+  <si>
     <t>headRelationshipType</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>2.1. Relation avec le chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. ከየቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
     <t>migration</t>
   </si>
   <si>
@@ -184,6 +199,9 @@
     <t>2.2. Type d'Immigration</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእንቅስቃሴ አይነት  </t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
@@ -199,6 +217,9 @@
     <t>2.3. Code du Ménage d'Origine</t>
   </si>
   <si>
+    <t xml:space="preserve">2.3. የመነሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t>2.4. Code du Ménage de Destination</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4. የመድረሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>migrationDate</t>
   </si>
   <si>
@@ -226,6 +250,9 @@
     <t>2.5. Date de la Migration?</t>
   </si>
   <si>
+    <t xml:space="preserve">2.5. የእንቅስቃሴ ቀን  </t>
+  </si>
+  <si>
     <t>migrationReason</t>
   </si>
   <si>
@@ -241,6 +268,9 @@
     <t>2.6. Les causes de l'immigration</t>
   </si>
   <si>
+    <t xml:space="preserve">2.6. የእንቅስቃሴ ምክንያት  </t>
+  </si>
+  <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>2.6.1. Précisez l'autre raison de l'immigration</t>
   </si>
   <si>
+    <t xml:space="preserve">2.6.1. ሌላ የእንቅስቃሴ ምክንያት ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
@@ -271,6 +304,9 @@
     <t>2.7. Niveau d'éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">2.7. የትምህርት ደረጃ  </t>
+  </si>
+  <si>
     <t>call:getMemberAge() &gt; 5</t>
   </si>
   <si>
@@ -286,6 +322,9 @@
     <t>2.8. Religião</t>
   </si>
   <si>
+    <t xml:space="preserve">2.8. ሃይማኖት  </t>
+  </si>
+  <si>
     <t>hasPhoneNumbers</t>
   </si>
   <si>
@@ -301,6 +340,9 @@
     <t>2.9. Le membre a-t-il un numéro de téléphone?</t>
   </si>
   <si>
+    <t xml:space="preserve">2.9. አባሉ የራሱ ስልክ ቁጥር አለው?  </t>
+  </si>
+  <si>
     <t>phonePrimary</t>
   </si>
   <si>
@@ -313,6 +355,9 @@
     <t>2.9.1. Quel est le numéro de téléphone principal du membre?</t>
   </si>
   <si>
+    <t xml:space="preserve">2.9.1. የአባሉ ዋና የስልክ ቁጥር ምንድነው?  </t>
+  </si>
+  <si>
     <t>${hasPhoneNumbers} = 'true'</t>
   </si>
   <si>
@@ -331,6 +376,9 @@
     <t>2.9.2. Quel est le numéro de téléphone alternatif du membre ? (Si disponible)</t>
   </si>
   <si>
+    <t xml:space="preserve">2.9.2. የአባሉ አማራጭ የስልክ ቁጥር ምንድነው? (ካለ)  </t>
+  </si>
+  <si>
     <t>collected</t>
   </si>
   <si>
@@ -349,6 +397,9 @@
     <t>Code de l'Enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -364,6 +415,9 @@
     <t>Date de Collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -373,18 +427,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -397,6 +460,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t>ለመድረሻዎች የተፈቀደ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -412,6 +478,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
@@ -424,6 +493,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይ  </t>
+  </si>
+  <si>
     <t>genders</t>
   </si>
   <si>
@@ -439,6 +511,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -451,6 +526,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>HOH</t>
   </si>
   <si>
@@ -463,6 +541,9 @@
     <t>Chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰብ አለቃ  </t>
+  </si>
+  <si>
     <t>SPO</t>
   </si>
   <si>
@@ -475,6 +556,9 @@
     <t>Conjoint</t>
   </si>
   <si>
+    <t xml:space="preserve">ባል/ሚስት  </t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
@@ -487,6 +571,9 @@
     <t>Fils/fille</t>
   </si>
   <si>
+    <t xml:space="preserve">ልጅ  </t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -499,6 +586,9 @@
     <t>Frère/Sœur</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድም/እህት  </t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -511,6 +601,9 @@
     <t>Père/Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">ወላጅ  </t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -523,6 +616,9 @@
     <t>Petits-enfants</t>
   </si>
   <si>
+    <t xml:space="preserve">የልጅ ልጅ  </t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -535,6 +631,9 @@
     <t>Aucune relation</t>
   </si>
   <si>
+    <t xml:space="preserve">ዝምድና የለውም  </t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -547,6 +646,9 @@
     <t>Autre parent</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ ዝምድና  </t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -559,6 +661,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>ENT</t>
   </si>
   <si>
@@ -571,6 +676,9 @@
     <t>Immigration interne</t>
   </si>
   <si>
+    <t xml:space="preserve">ውስጣዊ መግቢያ  </t>
+  </si>
+  <si>
     <t>CAME_WITH_RELATIVES</t>
   </si>
   <si>
@@ -583,6 +691,9 @@
     <t>Il est venu avec sa famille</t>
   </si>
   <si>
+    <t xml:space="preserve">ከቤተሰብ አባላት ጋር መጣ  </t>
+  </si>
+  <si>
     <t>FARMING</t>
   </si>
   <si>
@@ -595,6 +706,9 @@
     <t>Agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">ግብርና  </t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -607,6 +721,9 @@
     <t>Changement d'état civil</t>
   </si>
   <si>
+    <t xml:space="preserve">የጋብቻ ሁኔታ ለውጥ  </t>
+  </si>
+  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -619,6 +736,9 @@
     <t>Pêche</t>
   </si>
   <si>
+    <t xml:space="preserve">አሳ ማግደል  </t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
@@ -631,6 +751,9 @@
     <t>Éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">ትምህርት/ትምህርት ቤት  </t>
+  </si>
+  <si>
     <t>HEALTH_REASON</t>
   </si>
   <si>
@@ -643,6 +766,9 @@
     <t>Santé</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ምክንያቶች  </t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -655,6 +781,9 @@
     <t>Travail</t>
   </si>
   <si>
+    <t xml:space="preserve">ሥራ  </t>
+  </si>
+  <si>
     <t>NEW_HOUSE</t>
   </si>
   <si>
@@ -667,6 +796,9 @@
     <t>Déménagement dans une nouvelle maison</t>
   </si>
   <si>
+    <t xml:space="preserve">ወደ አዲስ ቤት ተዛውሯል  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -679,6 +811,9 @@
     <t>Autre</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ  </t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
@@ -694,10 +829,16 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawInMigration</t>
   </si>
   <si>
     <t>Internal In Migration</t>
+  </si>
+  <si>
+    <t>ውስጣዊ መግቢያ እንቅስቃሴ</t>
   </si>
 </sst>
 </file>
@@ -705,10 +846,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -742,6 +883,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -757,92 +906,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,22 +929,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -885,9 +960,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +1060,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,7 +1138,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,121 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,31 +1192,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,6 +1341,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1210,41 +1375,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,175 +1397,186 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1467,21 +1608,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1489,7 +1643,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1502,16 +1655,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1830,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1846,15 +2017,16 @@
     <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="40.6285714285714" customWidth="1"/>
-    <col min="10" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.8190476190476" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="10" max="10" width="64.0571428571429" customWidth="1"/>
+    <col min="11" max="11" width="39.8857142857143" customWidth="1"/>
+    <col min="12" max="12" width="16.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.8190476190476" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +2054,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1897,645 +2069,698 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="49" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="21" t="s">
-        <v>20</v>
+      <c r="H2" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="49"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" t="b">
+        <v>64</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" t="b">
+        <v>70</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" t="b">
+        <v>75</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>71</v>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="23" t="b">
+        <v>83</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="23" t="b">
+      <c r="O12" s="28"/>
+      <c r="P12" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" s="17" customFormat="1" spans="1:16">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="25" t="b">
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" s="23" customFormat="1" spans="1:14">
+      <c r="A14" s="29"/>
+      <c r="D14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-    </row>
-    <row r="15" s="17" customFormat="1" spans="1:16">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="25" t="b">
+    </row>
+    <row r="15" s="23" customFormat="1" spans="1:17">
+      <c r="A15" s="29"/>
+      <c r="D15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" s="17" customFormat="1" spans="1:16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" s="18" customFormat="1" spans="1:14">
-      <c r="A17" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="18" t="b">
+      <c r="P15" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="1:17">
+      <c r="A16" s="29"/>
+      <c r="D16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="P16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="1:15">
+      <c r="A17" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="18" t="b">
+      <c r="O17" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="1:14">
-      <c r="A18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="19" t="b">
+    <row r="18" s="25" customFormat="1" spans="1:15">
+      <c r="A18" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="N18" s="19" t="b">
+      <c r="O18" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" spans="1:17">
-      <c r="A19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="N19" s="19" t="b">
+    <row r="19" s="25" customFormat="1" spans="1:18">
+      <c r="A19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="O19" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="19" t="b">
+      <c r="R19" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" spans="1:17">
-      <c r="A20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="N20" s="19" t="b">
+    <row r="20" s="25" customFormat="1" spans="1:18">
+      <c r="A20" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="O20" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="Q20" s="19" t="b">
+      <c r="R20" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="19" customFormat="1" spans="1:17">
-      <c r="A21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    <row r="21" s="25" customFormat="1" spans="1:18">
+      <c r="A21" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="N21" s="19" t="b">
+      <c r="D21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="O21" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="Q21" s="19" t="b">
+      <c r="R21" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="1" spans="1:14">
-      <c r="A22" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="20" t="b">
+    <row r="22" s="26" customFormat="1" spans="1:15">
+      <c r="A22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N22" s="20" t="b">
+      <c r="O22" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2580,26 +2805,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
-    <col min="3" max="5" width="22.8190476190476" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="3" max="4" width="22.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="21.3238095238095" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2607,552 +2834,648 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>140</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>161</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>176</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>221</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="D25" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="E25" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F25" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="9"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="9"/>
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="9"/>
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="9"/>
       <c r="B31" s="12"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
       <c r="B32" s="12"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="12"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-    </row>
-    <row r="39" spans="6:6">
+      <c r="G37" s="11"/>
+    </row>
+    <row r="39" spans="6:7">
       <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="6:6">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="6:7">
       <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="6:6">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="6:7">
       <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="6:6">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="6:7">
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="6:6">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="6:7">
       <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="6:6">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="6:7">
       <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="6:6">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="6:7">
       <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="6:6">
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="6:7">
       <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="6:6">
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="6:7">
       <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3164,46 +3487,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="23.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="26.6095238095238" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>258</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/inmigration_form.xlsx
+++ b/app/src/main/res/raw/inmigration_form.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="264">
   <si>
     <t>group</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.1. ከየቤተሰቡ አለቃ ጋር ያለው ዝምድና  </t>
+  </si>
+  <si>
+    <t>call:isInstitutionalHousehold() = 'false'</t>
   </si>
   <si>
     <t>migration</t>
@@ -846,10 +849,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -883,9 +886,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,40 +931,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,33 +961,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,23 +984,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,9 +1008,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,7 +1048,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,7 +1063,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,145 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,19 +1195,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,26 +1340,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,37 +1397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,151 +1426,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1626,9 +1635,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1686,6 +1692,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2003,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2022,7 +2031,7 @@
     <col min="12" max="12" width="16.2666666666667" customWidth="1"/>
     <col min="13" max="13" width="12.8190476190476" customWidth="1"/>
     <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
-    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="16" max="16" width="35.5714285714286" customWidth="1"/>
     <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2054,7 +2063,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2072,7 +2081,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -2116,7 +2125,7 @@
       <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="49"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -2137,11 +2146,11 @@
       <c r="J3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
@@ -2168,11 +2177,11 @@
       <c r="J4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
@@ -2180,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
         <v>36</v>
@@ -2200,42 +2209,45 @@
       <c r="J5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
+      <c r="P5" s="49" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="K6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
@@ -2243,31 +2255,31 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="K7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
@@ -2278,25 +2290,25 @@
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="K8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
       <c r="N8" t="b">
         <v>1</v>
       </c>
@@ -2307,25 +2319,25 @@
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="K9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
       <c r="N9" t="b">
         <v>1</v>
       </c>
@@ -2333,28 +2345,28 @@
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="K10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
       <c r="N10" t="b">
         <v>1</v>
       </c>
@@ -2362,405 +2374,405 @@
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="K11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
       <c r="N11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
         <v>82</v>
       </c>
+      <c r="I12" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="28" t="b">
+      <c r="K12" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="28"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="37" t="s">
+      <c r="I13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="28" t="b">
+      <c r="J13" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:14">
-      <c r="A14" s="29"/>
-      <c r="D14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" s="22" customFormat="1" spans="1:14">
+      <c r="A14" s="28"/>
+      <c r="D14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="J14" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="23" t="b">
+      <c r="K14" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="23" customFormat="1" spans="1:17">
-      <c r="A15" s="29"/>
-      <c r="D15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="23" t="s">
+    <row r="15" s="22" customFormat="1" spans="1:17">
+      <c r="A15" s="28"/>
+      <c r="D15" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="J15" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="23" t="b">
+      <c r="K15" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="P15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="23" t="s">
+      <c r="P15" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" s="23" customFormat="1" spans="1:17">
-      <c r="A16" s="29"/>
-      <c r="D16" s="23" t="s">
+      <c r="Q15" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="23" t="s">
+    </row>
+    <row r="16" s="22" customFormat="1" spans="1:17">
+      <c r="A16" s="28"/>
+      <c r="D16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="P16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="23" t="s">
+      <c r="K16" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="P16" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" s="24" customFormat="1" spans="1:15">
-      <c r="A17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="Q16" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="1:15">
+      <c r="A17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="J17" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="24" t="b">
+      <c r="K17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="O17" s="24" t="b">
+      <c r="O17" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="25" customFormat="1" spans="1:15">
-      <c r="A18" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="25" t="s">
+    <row r="18" s="24" customFormat="1" spans="1:15">
+      <c r="A18" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="45" t="s">
+      <c r="J18" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="25" t="b">
+      <c r="K18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="O18" s="25" t="b">
+      <c r="O18" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="25" customFormat="1" spans="1:18">
-      <c r="A19" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="25" t="s">
+    <row r="19" s="24" customFormat="1" spans="1:18">
+      <c r="A19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="45" t="s">
+      <c r="H19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="O19" s="25" t="b">
+      <c r="I19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="O19" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="R19" s="25" t="b">
+      <c r="R19" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="25" customFormat="1" spans="1:18">
-      <c r="A20" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="25" t="s">
+    <row r="20" s="24" customFormat="1" spans="1:18">
+      <c r="A20" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="45" t="s">
+      <c r="H20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="O20" s="25" t="b">
+      <c r="I20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="O20" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="R20" s="25" t="b">
+      <c r="R20" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="25" customFormat="1" spans="1:18">
-      <c r="A21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="25" t="s">
+    <row r="21" s="24" customFormat="1" spans="1:18">
+      <c r="A21" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" s="45" t="s">
+      <c r="H21" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="O21" s="25" t="b">
+      <c r="I21" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="O21" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="R21" s="25" t="b">
+      <c r="R21" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="26" customFormat="1" spans="1:15">
-      <c r="A22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="26" t="s">
+    <row r="22" s="25" customFormat="1" spans="1:15">
+      <c r="A22" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="J22" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="26" t="b">
+      <c r="K22" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="O22" s="26" t="b">
+      <c r="O22" s="25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1"/>
@@ -2826,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2846,85 +2858,85 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -2933,22 +2945,22 @@
         <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2956,19 +2968,19 @@
         <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="21" t="s">
         <v>168</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2976,19 +2988,19 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="21" t="s">
         <v>173</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2996,19 +3008,19 @@
         <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="21" t="s">
         <v>178</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3016,19 +3028,19 @@
         <v>38</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="21" t="s">
         <v>183</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3036,19 +3048,19 @@
         <v>38</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="21" t="s">
         <v>188</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3056,19 +3068,19 @@
         <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="21" t="s">
         <v>193</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3076,19 +3088,19 @@
         <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="21" t="s">
         <v>198</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3096,240 +3108,240 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="21" t="s">
         <v>203</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="21" t="s">
         <v>208</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="21" t="s">
         <v>213</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="21" t="s">
         <v>218</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="21" t="s">
         <v>223</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="21" t="s">
         <v>228</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" s="21" t="s">
         <v>233</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="21" t="s">
         <v>238</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" s="21" t="s">
         <v>243</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="21" t="s">
         <v>248</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="22" t="s">
         <v>253</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>254</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="22" t="s">
         <v>203</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="G25" s="11"/>
     </row>
@@ -3504,36 +3516,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
